--- a/medicine/Enfance/Bruno_Cassiers_(dessinateur)/Bruno_Cassiers_(dessinateur).xlsx
+++ b/medicine/Enfance/Bruno_Cassiers_(dessinateur)/Bruno_Cassiers_(dessinateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruno Cassiers, né en 1949 à Bruxelles, est un auteur, conteur, essayiste, dessinateur et illustrateur belge.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruno Cassiers naît en 1949 à Bruxelles. Il a une formation d’architecte. Dans les années 1970, il écrit et illustre des contes humoristiques : Abélard le kangourou[1] et Le Voyage d'Abélard publiés aux éditions Rossel.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Cassiers naît en 1949 à Bruxelles. Il a une formation d’architecte. Dans les années 1970, il écrit et illustre des contes humoristiques : Abélard le kangourou et Le Voyage d'Abélard publiés aux éditions Rossel.
 Par ailleurs, il a réalisé des dessins au cours de voyages en Asie, en Afrique et au Moyen-Orient (surtout en Égypte, où il a dessiné tant les monuments de l'antiquité pharaonique que ceux du Caire médiéval). Ceux-ci sont publiés dans un ouvrage intitulé L'Égypte dessinée dont il est auteur aux éditions Lycaons en 2012.
-En 2022, il sort l'essai Les Secrets d'Hergé dessinateur ou l'art de composer les images dans la collection « Zoom sur Hergé » aux éditions 1000 Sabords[2],[3].
+En 2022, il sort l'essai Les Secrets d'Hergé dessinateur ou l'art de composer les images dans la collection « Zoom sur Hergé » aux éditions 1000 Sabords,.
 </t>
         </is>
       </c>
@@ -546,15 +560,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Abélard le kangourou, conte illustré, Bruxelles/Paris, Rossel ; réédition Fleurus
-Abélard le kangourou[4], 1972.
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abélard le kangourou, conte illustré, Bruxelles/Paris, Rossel ; réédition Fleurus
+Abélard le kangourou, 1972.
 Le Voyage d'Abélard, 1972.
-Dustam : una storia felice[5] (conte illustré, Rome/Buenos Aires, 1981).
-Ouvrage
-L'Égypte dessinée, Étude historique, Grez Doiceau, Lycaons, 2012.
-Essai
-Les Secrets d'Hergé dessinateur ou l'art de composer les images (essai), Paris, 1000 Sabords, coll. « Zoom sur Hergé », 9 février 2022, 104 p. (ISBN 9791033402008, présentation en ligne)</t>
+Dustam : una storia felice (conte illustré, Rome/Buenos Aires, 1981).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruno_Cassiers_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Cassiers_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Égypte dessinée, Étude historique, Grez Doiceau, Lycaons, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bruno_Cassiers_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruno_Cassiers_(dessinateur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Secrets d'Hergé dessinateur ou l'art de composer les images (essai), Paris, 1000 Sabords, coll. « Zoom sur Hergé », 9 février 2022, 104 p. (ISBN 9791033402008, présentation en ligne)</t>
         </is>
       </c>
     </row>
